--- a/Liste_pièces_manette_universelle.xlsx
+++ b/Liste_pièces_manette_universelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pubte\Documents\GitHub\Manette\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C9CE680-CCB6-4156-9433-4329347F455C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E97D864-AC1E-4D0C-86E8-FCA9FD0D2915}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2EC3384-F864-48A8-89B4-626FABA1356E}"/>
   </bookViews>
@@ -250,20 +250,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -272,14 +263,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -606,7 +594,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +786,7 @@
         <f t="shared" si="0"/>
         <v>15.52</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -869,20 +857,20 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>39.950000000000003</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>39.950000000000003</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="2" t="s">

--- a/Liste_pièces_manette_universelle.xlsx
+++ b/Liste_pièces_manette_universelle.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pubte\Documents\GitHub\Manette\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\projet_manette\manette\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E97D864-AC1E-4D0C-86E8-FCA9FD0D2915}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2EC3384-F864-48A8-89B4-626FABA1356E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -210,7 +209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,7 +589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701A2EBC-8BE1-4F64-A475-F4674CB1522D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1038,24 +1037,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{4FE934D2-9F50-4862-A8EF-9AE94B131186}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{D4EA6A7C-6FA4-41E6-A7FF-690325402BEF}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{D0546126-C8A3-40CA-8AE3-78E06EFE7B6F}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{1906C0D3-5B40-4395-B6F2-FD26E43B8ECB}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{D7CBCBAD-60AA-4CAF-9311-A0D879B971BC}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{36809DA2-A9B9-4993-B263-5E6EF2B5F49B}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{1938C633-FD4B-4A29-85ED-3C2ACBB57F3E}"/>
-    <hyperlink ref="F11" r:id="rId8" xr:uid="{6D382559-A565-4C00-A7C5-1562CC640FF9}"/>
-    <hyperlink ref="F9" r:id="rId9" xr:uid="{C7A2B3B7-D016-452D-BDF5-19E3990D5037}"/>
-    <hyperlink ref="F10" r:id="rId10" xr:uid="{6D50B2AC-9DD9-4E1E-B3E1-8B904DE2EC11}"/>
-    <hyperlink ref="F13" r:id="rId11" xr:uid="{CA0AF74C-8D28-45F5-8751-5D56A2311932}"/>
-    <hyperlink ref="F15" r:id="rId12" xr:uid="{ED66D6C9-FE23-4B50-9D86-916CF08548B3}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{FE1B3CB4-E0FF-4F3A-9384-C82828A794F2}"/>
-    <hyperlink ref="F16" r:id="rId14" xr:uid="{0D59EB90-3111-4CB5-9E72-3B006881C07D}"/>
-    <hyperlink ref="F17" r:id="rId15" xr:uid="{E30E1B2B-7313-4106-AC22-23CEE5EEE57B}"/>
-    <hyperlink ref="F18" r:id="rId16" xr:uid="{CD60D5D8-1F9A-426B-8B77-2078CEF8D63A}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F11" r:id="rId8"/>
+    <hyperlink ref="F9" r:id="rId9"/>
+    <hyperlink ref="F10" r:id="rId10"/>
+    <hyperlink ref="F13" r:id="rId11"/>
+    <hyperlink ref="F15" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F16" r:id="rId14"/>
+    <hyperlink ref="F17" r:id="rId15"/>
+    <hyperlink ref="F18" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId17"/>
 </worksheet>
 </file>